--- a/data-raw/FAKE_DATA_2021.xlsx
+++ b/data-raw/FAKE_DATA_2021.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flhug/Dropbox (PP)/H4Sci_RPackage/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flhug/Dropbox (Personal)/PhD/Courses/H4Sci_Project/Git/pseudonymizer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50E7F13C-856F-D241-BDC4-0DF500C11173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DEBA25-E939-384B-8398-34509918C7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="55000" yWindow="-9660" windowWidth="12800" windowHeight="23500" xr2:uid="{F2FEE1B5-A181-9D49-99C5-546F0817DC33}"/>
+    <workbookView xWindow="29400" yWindow="-9660" windowWidth="38400" windowHeight="23500" xr2:uid="{F2FEE1B5-A181-9D49-99C5-546F0817DC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
   <si>
     <t>NNSS</t>
   </si>
@@ -132,6 +132,21 @@
   </si>
   <si>
     <t>Wilen b. Neunforn</t>
+  </si>
+  <si>
+    <t>STRASSE</t>
+  </si>
+  <si>
+    <t>HAUSNR</t>
+  </si>
+  <si>
+    <t>Ackerstrasse</t>
+  </si>
+  <si>
+    <t>Fichtenhalde</t>
+  </si>
+  <si>
+    <t>Denzingsteig</t>
   </si>
 </sst>
 </file>
@@ -203,10 +218,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -506,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BF7B3D-EBD7-8C4D-A454-F3444C20C8ED}">
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -520,9 +531,10 @@
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,22 +563,28 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:14">
+    <row r="2" spans="1:16">
       <c r="A2" s="3">
         <v>7560000000001</v>
       </c>
@@ -594,23 +612,29 @@
       <c r="I2" t="s">
         <v>17</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2">
+        <v>11</v>
+      </c>
+      <c r="L2">
         <v>804500</v>
       </c>
-      <c r="K2" t="s">
+      <c r="M2" t="s">
         <v>18</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:14">
+    <row r="3" spans="1:16">
       <c r="A3" s="3">
         <v>7560000000004</v>
       </c>
@@ -635,23 +659,29 @@
       <c r="H3">
         <v>2</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3">
+        <v>22</v>
+      </c>
+      <c r="L3">
         <v>813503</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="s">
         <v>27</v>
       </c>
-      <c r="L3">
+      <c r="N3">
         <v>10000</v>
       </c>
-      <c r="M3">
+      <c r="O3">
         <v>1</v>
       </c>
-      <c r="N3">
+      <c r="P3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:16">
       <c r="A4" s="3">
         <v>7560000000006</v>
       </c>
@@ -679,20 +709,26 @@
       <c r="I4" t="s">
         <v>30</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K4">
+        <v>300</v>
+      </c>
+      <c r="L4">
         <v>852502</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L4">
+      <c r="N4">
         <v>20000</v>
       </c>
     </row>
-    <row r="11" spans="1:14">
+    <row r="11" spans="1:16">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:16">
       <c r="E12" s="3"/>
     </row>
   </sheetData>

--- a/data-raw/FAKE_DATA_2021.xlsx
+++ b/data-raw/FAKE_DATA_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flhug/Dropbox (Personal)/PhD/Courses/H4Sci_Project/Git/pseudonymizer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6DEBA25-E939-384B-8398-34509918C7A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA620A-57A7-A64C-A20A-15572553210D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-9660" windowWidth="38400" windowHeight="23500" xr2:uid="{F2FEE1B5-A181-9D49-99C5-546F0817DC33}"/>
+    <workbookView xWindow="25600" yWindow="-1980" windowWidth="38400" windowHeight="21100" xr2:uid="{F2FEE1B5-A181-9D49-99C5-546F0817DC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
   <si>
     <t>NNSS</t>
   </si>
@@ -147,6 +147,18 @@
   </si>
   <si>
     <t>Denzingsteig</t>
+  </si>
+  <si>
+    <t>EGID</t>
+  </si>
+  <si>
+    <t>EWID</t>
+  </si>
+  <si>
+    <t>STEUERBARESEINKOMMEN</t>
+  </si>
+  <si>
+    <t>AMOUNT</t>
   </si>
 </sst>
 </file>
@@ -517,10 +529,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91BF7B3D-EBD7-8C4D-A454-F3444C20C8ED}">
-  <dimension ref="A1:P12"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -534,7 +546,7 @@
     <col min="10" max="11" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -575,16 +587,28 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="T1" s="2" t="s">
+        <v>40</v>
+      </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:20">
       <c r="A2" s="3">
         <v>7560000000001</v>
       </c>
@@ -625,16 +649,25 @@
         <v>18</v>
       </c>
       <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
+        <v>11111</v>
       </c>
       <c r="P2">
         <v>0</v>
       </c>
+      <c r="Q2">
+        <v>12345</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:20">
       <c r="A3" s="3">
         <v>7560000000004</v>
       </c>
@@ -672,16 +705,25 @@
         <v>27</v>
       </c>
       <c r="N3">
+        <v>22</v>
+      </c>
+      <c r="P3">
         <v>10000</v>
       </c>
-      <c r="O3">
+      <c r="Q3">
+        <v>99999</v>
+      </c>
+      <c r="R3">
         <v>1</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>0</v>
       </c>
+      <c r="T3">
+        <v>2000</v>
+      </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:20">
       <c r="A4" s="3">
         <v>7560000000006</v>
       </c>
@@ -721,14 +763,26 @@
       <c r="M4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="5">
+        <v>9</v>
+      </c>
+      <c r="O4" s="5">
+        <v>122</v>
+      </c>
+      <c r="P4">
         <v>20000</v>
       </c>
+      <c r="Q4">
+        <v>400000</v>
+      </c>
+      <c r="T4">
+        <v>-50</v>
+      </c>
     </row>
-    <row r="11" spans="1:16">
+    <row r="11" spans="1:20">
       <c r="E11" s="3"/>
     </row>
-    <row r="12" spans="1:16">
+    <row r="12" spans="1:20">
       <c r="E12" s="3"/>
     </row>
   </sheetData>

--- a/data-raw/FAKE_DATA_2021.xlsx
+++ b/data-raw/FAKE_DATA_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flhug/Dropbox (Personal)/PhD/Courses/H4Sci_Project/Git/pseudonymizer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7DA620A-57A7-A64C-A20A-15572553210D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC742F7F-F2F3-7F4D-9E30-D8961E4274C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="-1980" windowWidth="38400" windowHeight="21100" xr2:uid="{F2FEE1B5-A181-9D49-99C5-546F0817DC33}"/>
+    <workbookView xWindow="29400" yWindow="-7260" windowWidth="38400" windowHeight="21100" xr2:uid="{F2FEE1B5-A181-9D49-99C5-546F0817DC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>NNSS</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>AMOUNT</t>
+  </si>
+  <si>
+    <t>756.0000.0000.01</t>
   </si>
 </sst>
 </file>
@@ -532,7 +535,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T5" sqref="T5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -609,8 +612,8 @@
       </c>
     </row>
     <row r="2" spans="1:20">
-      <c r="A2" s="3">
-        <v>7560000000001</v>
+      <c r="A2" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>

--- a/data-raw/FAKE_DATA_2021.xlsx
+++ b/data-raw/FAKE_DATA_2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/flhug/Dropbox (Personal)/PhD/Courses/H4Sci_Project/Git/pseudonymizer/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC742F7F-F2F3-7F4D-9E30-D8961E4274C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B841F76-0E64-FA42-A2E6-D42320D0A67B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29400" yWindow="-7260" windowWidth="38400" windowHeight="21100" xr2:uid="{F2FEE1B5-A181-9D49-99C5-546F0817DC33}"/>
+    <workbookView xWindow="1060" yWindow="740" windowWidth="14180" windowHeight="18380" xr2:uid="{F2FEE1B5-A181-9D49-99C5-546F0817DC33}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Sihlwald</t>
   </si>
   <si>
-    <t>Freud</t>
-  </si>
-  <si>
     <t>Ferdi</t>
   </si>
   <si>
@@ -162,6 +159,9 @@
   </si>
   <si>
     <t>756.0000.0000.01</t>
+  </si>
+  <si>
+    <t>Freud-Fichter</t>
   </si>
 </sst>
 </file>
@@ -535,7 +535,7 @@
   <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -578,10 +578,10 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" s="2" t="s">
         <v>32</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>33</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>9</v>
@@ -590,16 +590,16 @@
         <v>10</v>
       </c>
       <c r="N1" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>19</v>
@@ -608,12 +608,12 @@
         <v>20</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:20">
       <c r="A2" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
@@ -640,7 +640,7 @@
         <v>17</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2">
         <v>11</v>
@@ -696,7 +696,7 @@
         <v>2</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3">
         <v>22</v>
@@ -731,10 +731,10 @@
         <v>7560000000006</v>
       </c>
       <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
       </c>
       <c r="D4" s="4">
         <v>28193</v>
@@ -752,10 +752,10 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K4">
         <v>300</v>
@@ -764,7 +764,7 @@
         <v>852502</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N4" s="5">
         <v>9</v>
